--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H2">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J2">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N2">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P2">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q2">
-        <v>25.9857523527488</v>
+        <v>117.956133750464</v>
       </c>
       <c r="R2">
-        <v>25.9857523527488</v>
+        <v>1061.605203754176</v>
       </c>
       <c r="S2">
-        <v>0.01574389691120307</v>
+        <v>0.03297690881271426</v>
       </c>
       <c r="T2">
-        <v>0.01574389691120307</v>
+        <v>0.03297690881271426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H3">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J3">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N3">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P3">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q3">
-        <v>18.11157596125964</v>
+        <v>39.59271617152001</v>
       </c>
       <c r="R3">
-        <v>18.11157596125964</v>
+        <v>356.33444554368</v>
       </c>
       <c r="S3">
-        <v>0.01097319719524428</v>
+        <v>0.01106890629018057</v>
       </c>
       <c r="T3">
-        <v>0.01097319719524428</v>
+        <v>0.01106890629018058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2990146878712</v>
+        <v>24.333402</v>
       </c>
       <c r="H4">
-        <v>11.2990146878712</v>
+        <v>73.00020600000001</v>
       </c>
       <c r="I4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062574</v>
       </c>
       <c r="J4">
-        <v>0.9419082982224258</v>
+        <v>0.9697175080062576</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N4">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P4">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q4">
-        <v>1510.54926996181</v>
+        <v>3311.063951968409</v>
       </c>
       <c r="R4">
-        <v>1510.54926996181</v>
+        <v>29799.57556771568</v>
       </c>
       <c r="S4">
-        <v>0.9151912041159784</v>
+        <v>0.9256716929033626</v>
       </c>
       <c r="T4">
-        <v>0.9151912041159784</v>
+        <v>0.9256716929033627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H5">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J5">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N5">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P5">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q5">
-        <v>0.6292466349392216</v>
+        <v>1.400379347317333</v>
       </c>
       <c r="R5">
-        <v>0.6292466349392216</v>
+        <v>12.603414125856</v>
       </c>
       <c r="S5">
-        <v>0.0003812394583663684</v>
+        <v>0.0003915030153275971</v>
       </c>
       <c r="T5">
-        <v>0.0003812394583663684</v>
+        <v>0.0003915030153275971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H6">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J6">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N6">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P6">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q6">
-        <v>0.438572956147763</v>
+        <v>0.4700461117866667</v>
       </c>
       <c r="R6">
-        <v>0.438572956147763</v>
+        <v>4.23041500608</v>
       </c>
       <c r="S6">
-        <v>0.0002657166633430785</v>
+        <v>0.0001314104427918215</v>
       </c>
       <c r="T6">
-        <v>0.0002657166633430785</v>
+        <v>0.0001314104427918215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.273606354511406</v>
+        <v>0.288887</v>
       </c>
       <c r="H7">
-        <v>0.273606354511406</v>
+        <v>0.866661</v>
       </c>
       <c r="I7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="J7">
-        <v>0.02280836894895962</v>
+        <v>0.01151252018667195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N7">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P7">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q7">
-        <v>36.57804600499939</v>
+        <v>39.30906709601467</v>
       </c>
       <c r="R7">
-        <v>36.57804600499939</v>
+        <v>353.781603864132</v>
       </c>
       <c r="S7">
-        <v>0.02216141282725017</v>
+        <v>0.01098960672855253</v>
       </c>
       <c r="T7">
-        <v>0.02216141282725017</v>
+        <v>0.01098960672855253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H8">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J8">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.29982463697856</v>
+        <v>4.847498666666667</v>
       </c>
       <c r="N8">
-        <v>2.29982463697856</v>
+        <v>14.542496</v>
       </c>
       <c r="O8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="P8">
-        <v>0.01671489352086082</v>
+        <v>0.03400671694637637</v>
       </c>
       <c r="Q8">
-        <v>0.9734110537026798</v>
+        <v>2.283173487832889</v>
       </c>
       <c r="R8">
-        <v>0.9734110537026798</v>
+        <v>20.548561390496</v>
       </c>
       <c r="S8">
-        <v>0.0005897571512913853</v>
+        <v>0.0006383051183345159</v>
       </c>
       <c r="T8">
-        <v>0.0005897571512913853</v>
+        <v>0.000638305118334516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H9">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J9">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.60293410191787</v>
+        <v>1.627093333333334</v>
       </c>
       <c r="N9">
-        <v>1.60293410191787</v>
+        <v>4.88128</v>
       </c>
       <c r="O9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="P9">
-        <v>0.01164996339447582</v>
+        <v>0.01141456784970118</v>
       </c>
       <c r="Q9">
-        <v>0.6784490208843599</v>
+        <v>0.7663615023644444</v>
       </c>
       <c r="R9">
-        <v>0.6784490208843599</v>
+        <v>6.897253521280001</v>
       </c>
       <c r="S9">
-        <v>0.0004110495358884665</v>
+        <v>0.0002142511167287862</v>
       </c>
       <c r="T9">
-        <v>0.0004110495358884665</v>
+        <v>0.0002142511167287862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.423254468210897</v>
+        <v>0.4710003333333333</v>
       </c>
       <c r="H10">
-        <v>0.423254468210897</v>
+        <v>1.413001</v>
       </c>
       <c r="I10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="J10">
-        <v>0.03528333282861455</v>
+        <v>0.01876997180707065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.688583623428</v>
+        <v>136.0707373333333</v>
       </c>
       <c r="N10">
-        <v>133.688583623428</v>
+        <v>408.212212</v>
       </c>
       <c r="O10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="P10">
-        <v>0.9716351430846633</v>
+        <v>0.9545787152039225</v>
       </c>
       <c r="Q10">
-        <v>56.58429036740205</v>
+        <v>64.08936264091244</v>
       </c>
       <c r="R10">
-        <v>56.58429036740205</v>
+        <v>576.804263768212</v>
       </c>
       <c r="S10">
-        <v>0.03428252614143469</v>
+        <v>0.01791741557200734</v>
       </c>
       <c r="T10">
-        <v>0.03428252614143469</v>
+        <v>0.01791741557200735</v>
       </c>
     </row>
   </sheetData>
